--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-28.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-28.xlsx
@@ -60327,7 +60327,11 @@
           <t>Baker Hughes Oil Rig CountJUL/18</t>
         </is>
       </c>
-      <c r="C2308" t="inlineStr"/>
+      <c r="C2308" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
       <c r="D2308" t="inlineStr">
         <is>
           <t>424</t>
@@ -60352,7 +60356,11 @@
           <t>Baker Hughes Total Rigs CountJUL/18</t>
         </is>
       </c>
-      <c r="C2309" t="inlineStr"/>
+      <c r="C2309" t="inlineStr">
+        <is>
+          <t>544</t>
+        </is>
+      </c>
       <c r="D2309" t="inlineStr">
         <is>
           <t>537</t>
@@ -61910,7 +61918,11 @@
         </is>
       </c>
       <c r="C2370" t="inlineStr"/>
-      <c r="D2370" t="inlineStr"/>
+      <c r="D2370" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
       <c r="E2370" t="inlineStr"/>
       <c r="F2370" t="inlineStr"/>
       <c r="G2370" t="inlineStr">
@@ -61931,7 +61943,11 @@
         </is>
       </c>
       <c r="C2371" t="inlineStr"/>
-      <c r="D2371" t="inlineStr"/>
+      <c r="D2371" t="inlineStr">
+        <is>
+          <t>544</t>
+        </is>
+      </c>
       <c r="E2371" t="inlineStr"/>
       <c r="F2371" t="inlineStr"/>
       <c r="G2371" t="inlineStr">
